--- a/src/data/confirmation-test.xlsx
+++ b/src/data/confirmation-test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>page</t>
   </si>
@@ -22,6 +22,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -31,13 +34,25 @@
     <t>mother</t>
   </si>
   <si>
-    <t>date yyyy/mm/dd</t>
-  </si>
-  <si>
     <t>priest</t>
   </si>
   <si>
-    <t>date</t>
+    <t>2017-05-24</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>2017-05-26</t>
+  </si>
+  <si>
+    <t>2017-05-27</t>
+  </si>
+  <si>
+    <t>2017-05-28</t>
+  </si>
+  <si>
+    <t>2017-05-29</t>
   </si>
 </sst>
 </file>
@@ -45,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,13 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -90,7 +98,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +120,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -112,16 +136,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,40 +188,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,25 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,16 +461,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +482,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,162 +518,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,8 +668,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,12 +997,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -994,7 +1012,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1017,8 +1035,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1027,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -1040,8 +1058,8 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1050,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -1063,8 +1081,8 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1073,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -1086,8 +1104,8 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -1096,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -1109,8 +1127,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1119,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
@@ -1132,8 +1150,8 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1142,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>

--- a/src/data/confirmation-test.xlsx
+++ b/src/data/confirmation-test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>page</t>
   </si>
@@ -40,19 +40,37 @@
     <t>2017-05-24</t>
   </si>
   <si>
+    <t>father1</t>
+  </si>
+  <si>
     <t>2017-05-25</t>
   </si>
   <si>
+    <t>father2</t>
+  </si>
+  <si>
     <t>2017-05-26</t>
   </si>
   <si>
+    <t>father3</t>
+  </si>
+  <si>
     <t>2017-05-27</t>
   </si>
   <si>
+    <t>father4</t>
+  </si>
+  <si>
     <t>2017-05-28</t>
   </si>
   <si>
+    <t>father5</t>
+  </si>
+  <si>
     <t>2017-05-29</t>
+  </si>
+  <si>
+    <t>father6</t>
   </si>
 </sst>
 </file>
@@ -74,39 +92,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,99 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,26 +439,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +506,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,148 +541,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +1015,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1042,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1059,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -1082,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1105,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1128,13 +1146,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -1151,13 +1169,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>

--- a/src/data/confirmation-test.xlsx
+++ b/src/data/confirmation-test.xlsx
@@ -14,33 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>father</t>
+    <t>father1</t>
   </si>
   <si>
     <t>mother</t>
   </si>
   <si>
     <t>priest</t>
-  </si>
-  <si>
-    <t>2017-05-24</t>
-  </si>
-  <si>
-    <t>father1</t>
   </si>
   <si>
     <t>2017-05-25</t>
@@ -78,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -92,15 +101,86 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,123 +194,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +254,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,109 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,55 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,21 +448,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -475,6 +488,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -489,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,24 +537,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,148 +550,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1024,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1057,16 +1066,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1077,19 +1086,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1100,19 +1109,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1123,19 +1132,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1146,19 +1155,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1169,19 +1178,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/confirmation-test.xlsx
+++ b/src/data/confirmation-test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="22">
   <si>
     <t>Page</t>
   </si>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,27 +116,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,31 +139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +155,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -202,7 +179,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,14 +216,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,15 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +260,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,31 +398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,121 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,32 +487,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,22 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,139 +550,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
   </cols>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1190,6 +1190,4836 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/data/confirmation-test.xlsx
+++ b/src/data/confirmation-test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="237">
   <si>
     <t>Page</t>
   </si>
@@ -40,7 +40,7 @@
     <t>2017-05-24</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name1</t>
   </si>
   <si>
     <t>father1</t>
@@ -55,31 +55,676 @@
     <t>2017-05-25</t>
   </si>
   <si>
+    <t>name2</t>
+  </si>
+  <si>
     <t>father2</t>
   </si>
   <si>
     <t>2017-05-26</t>
   </si>
   <si>
+    <t>name3</t>
+  </si>
+  <si>
     <t>father3</t>
   </si>
   <si>
     <t>2017-05-27</t>
   </si>
   <si>
+    <t>name4</t>
+  </si>
+  <si>
     <t>father4</t>
   </si>
   <si>
     <t>2017-05-28</t>
   </si>
   <si>
+    <t>name5</t>
+  </si>
+  <si>
     <t>father5</t>
   </si>
   <si>
     <t>2017-05-29</t>
   </si>
   <si>
+    <t>name6</t>
+  </si>
+  <si>
     <t>father6</t>
+  </si>
+  <si>
+    <t>name7</t>
+  </si>
+  <si>
+    <t>name8</t>
+  </si>
+  <si>
+    <t>name9</t>
+  </si>
+  <si>
+    <t>name10</t>
+  </si>
+  <si>
+    <t>name11</t>
+  </si>
+  <si>
+    <t>name12</t>
+  </si>
+  <si>
+    <t>name13</t>
+  </si>
+  <si>
+    <t>name14</t>
+  </si>
+  <si>
+    <t>name15</t>
+  </si>
+  <si>
+    <t>name16</t>
+  </si>
+  <si>
+    <t>name17</t>
+  </si>
+  <si>
+    <t>name18</t>
+  </si>
+  <si>
+    <t>name19</t>
+  </si>
+  <si>
+    <t>name20</t>
+  </si>
+  <si>
+    <t>name21</t>
+  </si>
+  <si>
+    <t>name22</t>
+  </si>
+  <si>
+    <t>name23</t>
+  </si>
+  <si>
+    <t>name24</t>
+  </si>
+  <si>
+    <t>name25</t>
+  </si>
+  <si>
+    <t>name26</t>
+  </si>
+  <si>
+    <t>name27</t>
+  </si>
+  <si>
+    <t>name28</t>
+  </si>
+  <si>
+    <t>name29</t>
+  </si>
+  <si>
+    <t>name30</t>
+  </si>
+  <si>
+    <t>name31</t>
+  </si>
+  <si>
+    <t>name32</t>
+  </si>
+  <si>
+    <t>name33</t>
+  </si>
+  <si>
+    <t>name34</t>
+  </si>
+  <si>
+    <t>name35</t>
+  </si>
+  <si>
+    <t>name36</t>
+  </si>
+  <si>
+    <t>name37</t>
+  </si>
+  <si>
+    <t>name38</t>
+  </si>
+  <si>
+    <t>name39</t>
+  </si>
+  <si>
+    <t>name40</t>
+  </si>
+  <si>
+    <t>name41</t>
+  </si>
+  <si>
+    <t>name42</t>
+  </si>
+  <si>
+    <t>name43</t>
+  </si>
+  <si>
+    <t>name44</t>
+  </si>
+  <si>
+    <t>name45</t>
+  </si>
+  <si>
+    <t>name46</t>
+  </si>
+  <si>
+    <t>name47</t>
+  </si>
+  <si>
+    <t>name48</t>
+  </si>
+  <si>
+    <t>name49</t>
+  </si>
+  <si>
+    <t>name50</t>
+  </si>
+  <si>
+    <t>name51</t>
+  </si>
+  <si>
+    <t>name52</t>
+  </si>
+  <si>
+    <t>name53</t>
+  </si>
+  <si>
+    <t>name54</t>
+  </si>
+  <si>
+    <t>name55</t>
+  </si>
+  <si>
+    <t>name56</t>
+  </si>
+  <si>
+    <t>name57</t>
+  </si>
+  <si>
+    <t>name58</t>
+  </si>
+  <si>
+    <t>name59</t>
+  </si>
+  <si>
+    <t>name60</t>
+  </si>
+  <si>
+    <t>name61</t>
+  </si>
+  <si>
+    <t>name62</t>
+  </si>
+  <si>
+    <t>name63</t>
+  </si>
+  <si>
+    <t>name64</t>
+  </si>
+  <si>
+    <t>name65</t>
+  </si>
+  <si>
+    <t>name66</t>
+  </si>
+  <si>
+    <t>name67</t>
+  </si>
+  <si>
+    <t>name68</t>
+  </si>
+  <si>
+    <t>name69</t>
+  </si>
+  <si>
+    <t>name70</t>
+  </si>
+  <si>
+    <t>name71</t>
+  </si>
+  <si>
+    <t>name72</t>
+  </si>
+  <si>
+    <t>name73</t>
+  </si>
+  <si>
+    <t>name74</t>
+  </si>
+  <si>
+    <t>name75</t>
+  </si>
+  <si>
+    <t>name76</t>
+  </si>
+  <si>
+    <t>name77</t>
+  </si>
+  <si>
+    <t>name78</t>
+  </si>
+  <si>
+    <t>name79</t>
+  </si>
+  <si>
+    <t>name80</t>
+  </si>
+  <si>
+    <t>name81</t>
+  </si>
+  <si>
+    <t>name82</t>
+  </si>
+  <si>
+    <t>name83</t>
+  </si>
+  <si>
+    <t>name84</t>
+  </si>
+  <si>
+    <t>name85</t>
+  </si>
+  <si>
+    <t>name86</t>
+  </si>
+  <si>
+    <t>name87</t>
+  </si>
+  <si>
+    <t>name88</t>
+  </si>
+  <si>
+    <t>name89</t>
+  </si>
+  <si>
+    <t>name90</t>
+  </si>
+  <si>
+    <t>name91</t>
+  </si>
+  <si>
+    <t>name92</t>
+  </si>
+  <si>
+    <t>name93</t>
+  </si>
+  <si>
+    <t>name94</t>
+  </si>
+  <si>
+    <t>name95</t>
+  </si>
+  <si>
+    <t>name96</t>
+  </si>
+  <si>
+    <t>name97</t>
+  </si>
+  <si>
+    <t>name98</t>
+  </si>
+  <si>
+    <t>name99</t>
+  </si>
+  <si>
+    <t>name100</t>
+  </si>
+  <si>
+    <t>name101</t>
+  </si>
+  <si>
+    <t>name102</t>
+  </si>
+  <si>
+    <t>name103</t>
+  </si>
+  <si>
+    <t>name104</t>
+  </si>
+  <si>
+    <t>name105</t>
+  </si>
+  <si>
+    <t>name106</t>
+  </si>
+  <si>
+    <t>name107</t>
+  </si>
+  <si>
+    <t>name108</t>
+  </si>
+  <si>
+    <t>name109</t>
+  </si>
+  <si>
+    <t>name110</t>
+  </si>
+  <si>
+    <t>name111</t>
+  </si>
+  <si>
+    <t>name112</t>
+  </si>
+  <si>
+    <t>name113</t>
+  </si>
+  <si>
+    <t>name114</t>
+  </si>
+  <si>
+    <t>name115</t>
+  </si>
+  <si>
+    <t>name116</t>
+  </si>
+  <si>
+    <t>name117</t>
+  </si>
+  <si>
+    <t>name118</t>
+  </si>
+  <si>
+    <t>name119</t>
+  </si>
+  <si>
+    <t>name120</t>
+  </si>
+  <si>
+    <t>name121</t>
+  </si>
+  <si>
+    <t>name122</t>
+  </si>
+  <si>
+    <t>name123</t>
+  </si>
+  <si>
+    <t>name124</t>
+  </si>
+  <si>
+    <t>name125</t>
+  </si>
+  <si>
+    <t>name126</t>
+  </si>
+  <si>
+    <t>name127</t>
+  </si>
+  <si>
+    <t>name128</t>
+  </si>
+  <si>
+    <t>name129</t>
+  </si>
+  <si>
+    <t>name130</t>
+  </si>
+  <si>
+    <t>name131</t>
+  </si>
+  <si>
+    <t>name132</t>
+  </si>
+  <si>
+    <t>name133</t>
+  </si>
+  <si>
+    <t>name134</t>
+  </si>
+  <si>
+    <t>name135</t>
+  </si>
+  <si>
+    <t>name136</t>
+  </si>
+  <si>
+    <t>name137</t>
+  </si>
+  <si>
+    <t>name138</t>
+  </si>
+  <si>
+    <t>name139</t>
+  </si>
+  <si>
+    <t>name140</t>
+  </si>
+  <si>
+    <t>name141</t>
+  </si>
+  <si>
+    <t>name142</t>
+  </si>
+  <si>
+    <t>name143</t>
+  </si>
+  <si>
+    <t>name144</t>
+  </si>
+  <si>
+    <t>name145</t>
+  </si>
+  <si>
+    <t>name146</t>
+  </si>
+  <si>
+    <t>name147</t>
+  </si>
+  <si>
+    <t>name148</t>
+  </si>
+  <si>
+    <t>name149</t>
+  </si>
+  <si>
+    <t>name150</t>
+  </si>
+  <si>
+    <t>name151</t>
+  </si>
+  <si>
+    <t>name152</t>
+  </si>
+  <si>
+    <t>name153</t>
+  </si>
+  <si>
+    <t>name154</t>
+  </si>
+  <si>
+    <t>name155</t>
+  </si>
+  <si>
+    <t>name156</t>
+  </si>
+  <si>
+    <t>name157</t>
+  </si>
+  <si>
+    <t>name158</t>
+  </si>
+  <si>
+    <t>name159</t>
+  </si>
+  <si>
+    <t>name160</t>
+  </si>
+  <si>
+    <t>name161</t>
+  </si>
+  <si>
+    <t>name162</t>
+  </si>
+  <si>
+    <t>name163</t>
+  </si>
+  <si>
+    <t>name164</t>
+  </si>
+  <si>
+    <t>name165</t>
+  </si>
+  <si>
+    <t>name166</t>
+  </si>
+  <si>
+    <t>name167</t>
+  </si>
+  <si>
+    <t>name168</t>
+  </si>
+  <si>
+    <t>name169</t>
+  </si>
+  <si>
+    <t>name170</t>
+  </si>
+  <si>
+    <t>name171</t>
+  </si>
+  <si>
+    <t>name172</t>
+  </si>
+  <si>
+    <t>name173</t>
+  </si>
+  <si>
+    <t>name174</t>
+  </si>
+  <si>
+    <t>name175</t>
+  </si>
+  <si>
+    <t>name176</t>
+  </si>
+  <si>
+    <t>name177</t>
+  </si>
+  <si>
+    <t>name178</t>
+  </si>
+  <si>
+    <t>name179</t>
+  </si>
+  <si>
+    <t>name180</t>
+  </si>
+  <si>
+    <t>name181</t>
+  </si>
+  <si>
+    <t>name182</t>
+  </si>
+  <si>
+    <t>name183</t>
+  </si>
+  <si>
+    <t>name184</t>
+  </si>
+  <si>
+    <t>name185</t>
+  </si>
+  <si>
+    <t>name186</t>
+  </si>
+  <si>
+    <t>name187</t>
+  </si>
+  <si>
+    <t>name188</t>
+  </si>
+  <si>
+    <t>name189</t>
+  </si>
+  <si>
+    <t>name190</t>
+  </si>
+  <si>
+    <t>name191</t>
+  </si>
+  <si>
+    <t>name192</t>
+  </si>
+  <si>
+    <t>name193</t>
+  </si>
+  <si>
+    <t>name194</t>
+  </si>
+  <si>
+    <t>name195</t>
+  </si>
+  <si>
+    <t>name196</t>
+  </si>
+  <si>
+    <t>name197</t>
+  </si>
+  <si>
+    <t>name198</t>
+  </si>
+  <si>
+    <t>name199</t>
+  </si>
+  <si>
+    <t>name200</t>
+  </si>
+  <si>
+    <t>name201</t>
+  </si>
+  <si>
+    <t>name202</t>
+  </si>
+  <si>
+    <t>name203</t>
+  </si>
+  <si>
+    <t>name204</t>
+  </si>
+  <si>
+    <t>name205</t>
+  </si>
+  <si>
+    <t>name206</t>
+  </si>
+  <si>
+    <t>name207</t>
+  </si>
+  <si>
+    <t>name208</t>
+  </si>
+  <si>
+    <t>name209</t>
+  </si>
+  <si>
+    <t>name210</t>
+  </si>
+  <si>
+    <t>name211</t>
+  </si>
+  <si>
+    <t>name212</t>
+  </si>
+  <si>
+    <t>name213</t>
+  </si>
+  <si>
+    <t>name214</t>
+  </si>
+  <si>
+    <t>name215</t>
+  </si>
+  <si>
+    <t>name216</t>
   </si>
 </sst>
 </file>
@@ -87,10 +732,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,15 +762,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +776,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,15 +862,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,31 +875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,36 +885,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +941,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,55 +1013,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +1037,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,49 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,21 +1090,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,7 +1112,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,18 +1136,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,24 +1173,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,136 +1198,136 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,8 +1668,8 @@
   <sheetPr/>
   <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A217"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="N218" sqref="N218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1089,10 +1734,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1109,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1132,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1155,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1178,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1204,7 +1849,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1227,10 +1872,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1247,13 +1892,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1270,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1293,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1316,13 +1961,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1342,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1365,10 +2010,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1385,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1408,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1431,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1454,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1480,7 +2125,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1503,10 +2148,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1523,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1546,13 +2191,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1569,13 +2214,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1592,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1618,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1641,10 +2286,10 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1661,13 +2306,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1684,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1707,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1730,13 +2375,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1756,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1779,10 +2424,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1799,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1822,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1845,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1868,13 +2513,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1894,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1917,10 +2562,10 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1937,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1960,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1983,13 +2628,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2006,13 +2651,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2032,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -2055,10 +2700,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2075,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2098,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2121,13 +2766,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2144,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2170,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -2193,10 +2838,10 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2213,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2236,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2259,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2282,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2308,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -2331,10 +2976,10 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2351,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2374,13 +3019,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2397,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2420,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2446,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -2469,10 +3114,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2489,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2512,13 +3157,13 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2535,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2558,13 +3203,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2584,7 +3229,7 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -2607,10 +3252,10 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2627,13 +3272,13 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2650,13 +3295,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2673,13 +3318,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2696,13 +3341,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2722,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -2745,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2765,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2788,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2811,13 +3456,13 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2834,13 +3479,13 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2860,7 +3505,7 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2883,10 +3528,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2903,13 +3548,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2926,13 +3571,13 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2949,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2972,13 +3617,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2998,7 +3643,7 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -3021,10 +3666,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -3041,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -3064,13 +3709,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -3087,13 +3732,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -3110,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3136,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -3159,10 +3804,10 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3179,13 +3824,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3202,13 +3847,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3225,13 +3870,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -3248,13 +3893,13 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -3274,7 +3919,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -3297,10 +3942,10 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3317,13 +3962,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3340,13 +3985,13 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -3363,13 +4008,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -3386,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -3412,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -3435,10 +4080,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3455,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -3478,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3501,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3524,13 +4169,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3550,7 +4195,7 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -3573,10 +4218,10 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3593,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3616,13 +4261,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3639,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -3662,13 +4307,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -3688,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3711,10 +4356,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -3731,13 +4376,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="E118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -3754,13 +4399,13 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -3777,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="E120" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -3800,13 +4445,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="E121" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -3826,7 +4471,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3849,10 +4494,10 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -3869,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -3892,13 +4537,13 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -3915,13 +4560,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -3938,13 +4583,13 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="E127" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -3964,7 +4609,7 @@
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -3987,10 +4632,10 @@
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -4007,13 +4652,13 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -4030,13 +4675,13 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -4053,13 +4698,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -4076,13 +4721,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="E133" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -4102,7 +4747,7 @@
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
@@ -4125,10 +4770,10 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -4145,13 +4790,13 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -4168,13 +4813,13 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E137" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -4191,13 +4836,13 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="E138" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -4214,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="E139" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -4240,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -4263,10 +4908,10 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -4283,13 +4928,13 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="E142" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -4306,13 +4951,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E143" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -4329,13 +4974,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -4352,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="E145" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -4378,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -4401,10 +5046,10 @@
         <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -4421,13 +5066,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -4444,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="E149" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -4467,13 +5112,13 @@
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="E150" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -4490,13 +5135,13 @@
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="E151" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -4516,7 +5161,7 @@
         <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -4539,10 +5184,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -4559,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="E154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -4582,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -4605,13 +5250,13 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="E156" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -4628,13 +5273,13 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="E157" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -4654,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -4677,10 +5322,10 @@
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -4697,13 +5342,13 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="E160" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -4720,13 +5365,13 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="E161" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -4743,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E162" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -4766,13 +5411,13 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="E163" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -4792,7 +5437,7 @@
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
@@ -4815,10 +5460,10 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -4835,13 +5480,13 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -4858,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="E167" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -4881,13 +5526,13 @@
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="E168" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -4904,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="E169" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -4930,7 +5575,7 @@
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
@@ -4953,10 +5598,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -4973,13 +5618,13 @@
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -4996,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="E173" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -5019,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="E174" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -5042,13 +5687,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="E175" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -5068,7 +5713,7 @@
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -5091,10 +5736,10 @@
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -5111,13 +5756,13 @@
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="E178" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -5134,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="E179" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -5157,13 +5802,13 @@
         <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -5180,13 +5825,13 @@
         <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E181" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -5206,7 +5851,7 @@
         <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
@@ -5229,10 +5874,10 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -5249,13 +5894,13 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="E184" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -5272,13 +5917,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="E185" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -5295,13 +5940,13 @@
         <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="E186" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -5318,13 +5963,13 @@
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="E187" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -5344,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
@@ -5367,10 +6012,10 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -5387,13 +6032,13 @@
         <v>1</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="E190" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -5410,13 +6055,13 @@
         <v>1</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E191" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -5433,13 +6078,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="E192" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -5456,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -5482,7 +6127,7 @@
         <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
@@ -5505,10 +6150,10 @@
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="E195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -5525,13 +6170,13 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="E196" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -5548,13 +6193,13 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="E197" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -5571,13 +6216,13 @@
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E198" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -5594,13 +6239,13 @@
         <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E199" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -5620,7 +6265,7 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
@@ -5643,10 +6288,10 @@
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="E201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -5663,13 +6308,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="E202" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -5686,13 +6331,13 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -5709,13 +6354,13 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="E204" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -5732,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="E205" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
@@ -5758,7 +6403,7 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="E206" t="s">
         <v>9</v>
@@ -5781,10 +6426,10 @@
         <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -5801,13 +6446,13 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="E208" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
@@ -5824,13 +6469,13 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="E209" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
@@ -5847,13 +6492,13 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="E210" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -5870,13 +6515,13 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="E211" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
@@ -5896,7 +6541,7 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="E212" t="s">
         <v>9</v>
@@ -5919,10 +6564,10 @@
         <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="E213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -5939,13 +6584,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="E214" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -5962,13 +6607,13 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E215" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -5985,13 +6630,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="E216" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -6008,13 +6653,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="E217" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
